--- a/ECFP4 Fingerprint/model_evaluation_results_updated.xlsx
+++ b/ECFP4 Fingerprint/model_evaluation_results_updated.xlsx
@@ -508,7 +508,7 @@
         <v>0.9372007548020053</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1564207553863525</v>
+        <v>0.162309988339742</v>
       </c>
     </row>
     <row r="3">
@@ -539,7 +539,7 @@
         <v>0.9133597138511802</v>
       </c>
       <c r="I3" t="n">
-        <v>0.179922898610433</v>
+        <v>0.1863313515981039</v>
       </c>
     </row>
     <row r="4">
@@ -570,7 +570,7 @@
         <v>0.9277094012279615</v>
       </c>
       <c r="I4" t="n">
-        <v>1.872102804978689</v>
+        <v>2.03218636115392</v>
       </c>
     </row>
     <row r="5">
@@ -601,7 +601,7 @@
         <v>0.8519968456035599</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1835573236147563</v>
+        <v>0.1587056001027425</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +632,7 @@
         <v>0.8906311609305471</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3705917636553446</v>
+        <v>0.2931920846303304</v>
       </c>
     </row>
     <row r="7">
@@ -663,7 +663,7 @@
         <v>0.9415521320340224</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2110800345738729</v>
+        <v>0.181870182355245</v>
       </c>
     </row>
     <row r="8">
@@ -694,7 +694,7 @@
         <v>0.8626499746521715</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5088513294855753</v>
+        <v>0.4304029107093811</v>
       </c>
     </row>
   </sheetData>

--- a/ECFP4 Fingerprint/model_evaluation_results_updated.xlsx
+++ b/ECFP4 Fingerprint/model_evaluation_results_updated.xlsx
@@ -508,7 +508,7 @@
         <v>0.9372007548020053</v>
       </c>
       <c r="I2" t="n">
-        <v>0.162309988339742</v>
+        <v>0.154386043548584</v>
       </c>
     </row>
     <row r="3">
@@ -539,7 +539,7 @@
         <v>0.9133597138511802</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1863313515981039</v>
+        <v>0.2304444551467895</v>
       </c>
     </row>
     <row r="4">
@@ -570,7 +570,7 @@
         <v>0.9277094012279615</v>
       </c>
       <c r="I4" t="n">
-        <v>2.03218636115392</v>
+        <v>1.950704165299733</v>
       </c>
     </row>
     <row r="5">
@@ -601,7 +601,7 @@
         <v>0.8519968456035599</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1587056001027425</v>
+        <v>0.1895913561185201</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +632,7 @@
         <v>0.8906311609305471</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2931920846303304</v>
+        <v>0.3062939087549845</v>
       </c>
     </row>
     <row r="7">
@@ -663,7 +663,7 @@
         <v>0.9415521320340224</v>
       </c>
       <c r="I7" t="n">
-        <v>0.181870182355245</v>
+        <v>0.1868185003598531</v>
       </c>
     </row>
     <row r="8">
@@ -694,7 +694,7 @@
         <v>0.8626499746521715</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4304029107093811</v>
+        <v>0.4548110961914062</v>
       </c>
     </row>
   </sheetData>
